--- a/eos/01.분석/지도데이터분석.xlsx
+++ b/eos/01.분석/지도데이터분석.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\spark_scala\eos\01.분석\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9B4D46-F69E-4CF9-AD1E-913F5FAE7761}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF835E1B-91CA-46A7-9572-9D0B2DEEC97A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32970" yWindow="3525" windowWidth="21600" windowHeight="12915" tabRatio="893" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="17700" tabRatio="893" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="20" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="45">
   <si>
     <t>분석유형</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,6 +192,18 @@
   </si>
   <si>
     <t>Resolution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD1664B-351A-4445-AB75-D32D3121A247}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:A40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -600,9 +612,10 @@
     <col min="1" max="1" width="15.25" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="51.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -612,8 +625,11 @@
       <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,8 +637,9 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,8 +647,9 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,8 +657,9 @@
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -648,8 +667,9 @@
       <c r="C5" s="4">
         <v>879</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -657,8 +677,9 @@
       <c r="C6" s="4">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -666,8 +687,9 @@
       <c r="C7" s="4">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -675,8 +697,9 @@
       <c r="C8" s="4">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -686,8 +709,9 @@
       <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -697,8 +721,9 @@
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -708,8 +733,9 @@
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -719,8 +745,9 @@
       <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -730,8 +757,9 @@
       <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -741,8 +769,9 @@
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -750,8 +779,9 @@
       <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -759,8 +789,9 @@
       <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -768,8 +799,9 @@
       <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -777,8 +809,11 @@
       <c r="C18" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -786,8 +821,9 @@
       <c r="C19" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -795,8 +831,9 @@
       <c r="C20" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -804,8 +841,11 @@
       <c r="C21" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -813,8 +853,9 @@
       <c r="C22" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
@@ -822,8 +863,9 @@
       <c r="C23" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -831,8 +873,9 @@
         <v>27</v>
       </c>
       <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -840,8 +883,9 @@
       <c r="C25" s="1">
         <v>1500</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -849,8 +893,9 @@
       <c r="C26" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -858,8 +903,9 @@
       <c r="C27" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
@@ -867,8 +913,9 @@
       <c r="C28" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
@@ -876,8 +923,9 @@
       <c r="C29" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -887,8 +935,9 @@
       <c r="C30" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -898,8 +947,9 @@
       <c r="C31" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -909,8 +959,9 @@
       <c r="C32" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -920,8 +971,9 @@
       <c r="C33" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>41</v>
       </c>
@@ -929,8 +981,9 @@
       <c r="C34" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>41</v>
       </c>
@@ -938,8 +991,9 @@
       <c r="C35" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>41</v>
       </c>
@@ -947,8 +1001,9 @@
       <c r="C36" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>41</v>
       </c>
@@ -956,8 +1011,9 @@
       <c r="C37" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>41</v>
       </c>
@@ -965,8 +1021,9 @@
       <c r="C38" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>41</v>
       </c>
@@ -974,8 +1031,9 @@
       <c r="C39" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>41</v>
       </c>
@@ -983,21 +1041,25 @@
       <c r="C40" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/eos/01.분석/지도데이터분석.xlsx
+++ b/eos/01.분석/지도데이터분석.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\spark_scala\eos\01.분석\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF835E1B-91CA-46A7-9572-9D0B2DEEC97A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC3FF09-C8B3-442F-B5F2-9F1D6E544568}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="17700" tabRatio="893" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2085" windowWidth="21600" windowHeight="12915" tabRatio="893" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="20" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
   <si>
     <t>분석유형</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,11 +199,315 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>세기</t>
+    <t>BEST 중계기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처리량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관통손실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Okumura </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모델</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도쿄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지역에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>측정을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>얻어진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실험</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이터를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>근거로하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제안된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모델</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hata </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">모델 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Okumura </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모델을 바탕으로하여 도심,교외,개방 환경에 대해 모델링</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Okumura-Hada 모델을 주파수에 맞게 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIBOS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>잡음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신호대잡음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">가시거리 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경로손실. RS Power(시스템에서의 출력)-RSRP(단말 측정 파워)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원하는 신호에 대해 많은 정보(인접채널간섭, 열잡음 등) + RB가 포함되어 있기 때문에 실제 환경이 반영된 지표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단말에 수신되는 모든 Power의 총 크기. 신호 세기에 인접한 채널의 간섭, 열 잡음 포함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단말 측정 파워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통화 중인 호를 계속 유지하면서, 기지국 간 이동을 원할하게 지원하는 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -211,7 +515,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +530,35 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -266,12 +599,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -287,9 +623,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -601,21 +953,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD1664B-351A-4445-AB75-D32D3121A247}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.25" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="18.875" customWidth="1"/>
-    <col min="4" max="4" width="51.625" customWidth="1"/>
+    <col min="4" max="4" width="76.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -629,7 +981,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,7 +991,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -649,7 +1001,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -659,7 +1011,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -669,7 +1021,7 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -679,7 +1031,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -689,7 +1041,7 @@
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -699,7 +1051,7 @@
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -709,9 +1061,11 @@
       <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -722,8 +1076,9 @@
         <v>9</v>
       </c>
       <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -733,9 +1088,12 @@
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -745,9 +1103,11 @@
       <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D12" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -757,9 +1117,10 @@
       <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D13" s="7"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -769,9 +1130,10 @@
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D14" s="8"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -779,9 +1141,11 @@
       <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D15" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -789,9 +1153,11 @@
       <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D16" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -799,9 +1165,11 @@
       <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -810,10 +1178,10 @@
         <v>20</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -821,9 +1189,11 @@
       <c r="C19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="33">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -831,9 +1201,11 @@
       <c r="C20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -842,10 +1214,10 @@
         <v>23</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -853,9 +1225,11 @@
       <c r="C22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D22" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
@@ -863,9 +1237,11 @@
       <c r="C23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D23" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -873,9 +1249,11 @@
         <v>27</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D24" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -885,7 +1263,7 @@
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -895,7 +1273,7 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -905,7 +1283,7 @@
       </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
@@ -915,7 +1293,7 @@
       </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
@@ -925,7 +1303,7 @@
       </c>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -937,7 +1315,7 @@
       </c>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -949,7 +1327,7 @@
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -961,7 +1339,7 @@
       </c>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -971,9 +1349,11 @@
       <c r="C33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
         <v>41</v>
       </c>
@@ -983,7 +1363,7 @@
       </c>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
         <v>41</v>
       </c>
@@ -993,7 +1373,7 @@
       </c>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
         <v>41</v>
       </c>
@@ -1003,7 +1383,7 @@
       </c>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
         <v>41</v>
       </c>
@@ -1013,7 +1393,7 @@
       </c>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
         <v>41</v>
       </c>
@@ -1023,7 +1403,7 @@
       </c>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
         <v>41</v>
       </c>
@@ -1033,7 +1413,7 @@
       </c>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
         <v>41</v>
       </c>
@@ -1043,23 +1423,28 @@
       </c>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
